--- a/www/ig/fhir/core/2.0.0-ballot/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/www/ig/fhir/core/2.0.0-ballot/StructureDefinition-fr-core-patient-ins.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7217" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6881" uniqueCount="851">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T09:40:49+01:00</t>
+    <t>2024-02-20T11:14:35+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1303,28 +1303,31 @@
     <t>PID-3</t>
   </si>
   <si>
-    <t>Patient.identifier:NSS</t>
-  </si>
-  <si>
-    <t>NSS</t>
-  </si>
-  <si>
-    <t>National Health Plan Identifier | Le Numéro d'Inscription au Répertoire (NIR) de facturation permet de faire transiter le numéro de sécurité social de l’ayant droit ou du bénéfiaire (patient) / le numéro de sécurité sociale de l’ouvrant droit (assuré).</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NSS.id</t>
+    <t>Patient.identifier:INS-C</t>
+  </si>
+  <si>
+    <t>INS-C</t>
+  </si>
+  <si>
+    <t>An identifier for this patient</t>
+  </si>
+  <si>
+    <t>Computed National Health Identifier | Identifiant National de Santé Calculé à partir des éléments de la carte vitale</t>
+  </si>
+  <si>
+    <t>Patient.identifier:INS-C.id</t>
   </si>
   <si>
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t>Patient.identifier:NSS.extension</t>
+    <t>Patient.identifier:INS-C.extension</t>
   </si>
   <si>
     <t>Patient.identifier.extension</t>
   </si>
   <si>
-    <t>Patient.identifier:NSS.use</t>
+    <t>Patient.identifier:INS-C.use</t>
   </si>
   <si>
     <t>Patient.identifier.use</t>
@@ -1342,7 +1345,7 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>official</t>
+    <t>secondary</t>
   </si>
   <si>
     <t>Identifies the purpose for this identifier, if known .</t>
@@ -1357,7 +1360,7 @@
     <t>Role.code or implied by context</t>
   </si>
   <si>
-    <t>Patient.identifier:NSS.type</t>
+    <t>Patient.identifier:INS-C.type</t>
   </si>
   <si>
     <t>Patient.identifier.type</t>
@@ -1370,166 +1373,10 @@
     <t>Description of identifier</t>
   </si>
   <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
     <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
-    &lt;code value="NH"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NSS.system</t>
-  </si>
-  <si>
-    <t>Patient.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.250.1.213.1.4.8</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NSS.value</t>
-  </si>
-  <si>
-    <t>Patient.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NSS.period</t>
-  </si>
-  <si>
-    <t>Patient.identifier.period</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Patient.identifier:NSS.assigner</t>
-  </si>
-  <si>
-    <t>Patient.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>Patient.identifier:INS-C</t>
-  </si>
-  <si>
-    <t>INS-C</t>
-  </si>
-  <si>
-    <t>Computed National Health Identifier | Identifiant National de Santé Calculé à partir des éléments de la carte vitale</t>
-  </si>
-  <si>
-    <t>Patient.identifier:INS-C.id</t>
-  </si>
-  <si>
-    <t>Patient.identifier:INS-C.extension</t>
-  </si>
-  <si>
-    <t>Patient.identifier:INS-C.use</t>
-  </si>
-  <si>
-    <t>secondary</t>
-  </si>
-  <si>
-    <t>Patient.identifier:INS-C.type</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1541,21 +1388,127 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
     <t>Patient.identifier:INS-C.system</t>
   </si>
   <si>
+    <t>Patient.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
     <t>urn:oid:1.2.250.1.213.1.4.2</t>
   </si>
   <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
     <t>Patient.identifier:INS-C.value</t>
   </si>
   <si>
+    <t>Patient.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
     <t>Patient.identifier:INS-C.period</t>
   </si>
   <si>
+    <t>Patient.identifier.period</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
     <t>Patient.identifier:INS-C.assigner</t>
   </si>
   <si>
+    <t>Patient.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
     <t>Patient.identifier:NDP</t>
   </si>
   <si>
@@ -1575,6 +1528,9 @@
   </si>
   <si>
     <t>Patient.identifier:NDP.type</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1586,6 +1542,9 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-identifier-type</t>
+  </si>
+  <si>
     <t>Patient.identifier:NDP.system</t>
   </si>
   <si>
@@ -1694,7 +1653,10 @@
     <t>INS-NIR</t>
   </si>
   <si>
-    <t>INS-NIR - The patient health national identifier INS coming from the INSi teleservice | Numéro d'Inscription au Répertoire (NIR) du patient INS provenant du téléservice INSi de la CNAM.</t>
+    <t>The patient's health national identifier INS coming from the INSi teleservice| Identifiant national de santé du patient INS provenant du téléservice INSi</t>
+  </si>
+  <si>
+    <t>patient's national identifier obtained by requesting the national patient identification service (CNAM) | Identifiant NIR du patient récupéré à partir de l'interrogation du service national d'identification des patients (CNAM)</t>
   </si>
   <si>
     <t>Patient.identifier:INS-NIR.id</t>
@@ -1704,6 +1666,9 @@
   </si>
   <si>
     <t>Patient.identifier:INS-NIR.use</t>
+  </si>
+  <si>
+    <t>official</t>
   </si>
   <si>
     <t>Patient.identifier:INS-NIR.type</t>
@@ -1723,6 +1688,9 @@
     <t>Autorité d'affectation des INS-NIR</t>
   </si>
   <si>
+    <t>urn:oid:1.2.250.1.213.1.4.8</t>
+  </si>
+  <si>
     <t>Patient.identifier:INS-NIR.value</t>
   </si>
   <si>
@@ -1738,7 +1706,7 @@
     <t>INS-NIA</t>
   </si>
   <si>
-    <t>INS-NIA - The temporary patient health national identifier obtained by requesting the national patient identification service (CNAM)| Identifiant national temporaire de santé du patient obtenu par interrogation du téléservice INSi de la CNAM.</t>
+    <t>The temporary patient's health national identifier obtained by requesting the national patient identification service (CNAM)| Identifiant national temporaire de santé du patient obtenu par interrogation du téléservice INSi de la CNAM</t>
   </si>
   <si>
     <t>Patient.identifier:INS-NIA.id</t>
@@ -3027,7 +2995,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO194"/>
+  <dimension ref="A1:AO185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11353,7 +11321,7 @@
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>81</v>
@@ -11371,7 +11339,7 @@
         <v>416</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -11456,10 +11424,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11571,10 +11539,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11688,10 +11656,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11717,16 +11685,16 @@
         <v>169</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -11736,7 +11704,7 @@
         <v>81</v>
       </c>
       <c r="S75" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>81</v>
@@ -11754,10 +11722,10 @@
         <v>262</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>81</v>
@@ -11775,7 +11743,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11790,7 +11758,7 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>81</v>
@@ -11807,10 +11775,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11833,13 +11801,13 @@
         <v>90</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>437</v>
@@ -11909,7 +11877,7 @@
         <v>101</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>81</v>
@@ -12410,7 +12378,7 @@
         <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>81</v>
@@ -12516,7 +12484,7 @@
         <v>483</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12631,7 +12599,7 @@
         <v>484</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12748,7 +12716,7 @@
         <v>485</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12774,16 +12742,16 @@
         <v>169</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>81</v>
@@ -12793,7 +12761,7 @@
         <v>81</v>
       </c>
       <c r="S84" t="s" s="2">
-        <v>486</v>
+        <v>428</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>81</v>
@@ -12811,10 +12779,10 @@
         <v>262</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>81</v>
@@ -12832,7 +12800,7 @@
         <v>81</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12847,7 +12815,7 @@
         <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>81</v>
@@ -12864,10 +12832,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12890,13 +12858,13 @@
         <v>90</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="N85" t="s" s="2">
         <v>437</v>
@@ -12929,11 +12897,9 @@
       <c r="X85" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Y85" t="s" s="2">
-        <v>440</v>
-      </c>
+      <c r="Y85" s="2"/>
       <c r="Z85" t="s" s="2">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>81</v>
@@ -12966,7 +12932,7 @@
         <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>81</v>
@@ -12983,7 +12949,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>445</v>
@@ -12994,7 +12960,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>89</v>
@@ -13031,7 +12997,7 @@
         <v>81</v>
       </c>
       <c r="S86" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="T86" t="s" s="2">
         <v>451</v>
@@ -13102,7 +13068,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>456</v>
@@ -13219,7 +13185,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>465</v>
@@ -13334,7 +13300,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>472</v>
@@ -13451,13 +13417,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>403</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>81</v>
@@ -13482,10 +13448,10 @@
         <v>404</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>406</v>
+        <v>497</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -13570,10 +13536,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13685,10 +13651,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13802,10 +13768,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13831,16 +13797,16 @@
         <v>169</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>81</v>
@@ -13850,7 +13816,7 @@
         <v>81</v>
       </c>
       <c r="S93" t="s" s="2">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="T93" t="s" s="2">
         <v>81</v>
@@ -13868,10 +13834,10 @@
         <v>262</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>81</v>
@@ -13889,7 +13855,7 @@
         <v>81</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13904,7 +13870,7 @@
         <v>101</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>81</v>
@@ -13921,10 +13887,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13947,13 +13913,13 @@
         <v>90</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="N94" t="s" s="2">
         <v>437</v>
@@ -13969,7 +13935,7 @@
         <v>81</v>
       </c>
       <c r="S94" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="T94" t="s" s="2">
         <v>81</v>
@@ -14023,7 +13989,7 @@
         <v>101</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>81</v>
@@ -14040,7 +14006,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>445</v>
@@ -14088,7 +14054,7 @@
         <v>81</v>
       </c>
       <c r="S95" t="s" s="2">
-        <v>503</v>
+        <v>81</v>
       </c>
       <c r="T95" t="s" s="2">
         <v>451</v>
@@ -14159,7 +14125,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>456</v>
@@ -14276,7 +14242,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>465</v>
@@ -14391,7 +14357,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>472</v>
@@ -14508,13 +14474,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>403</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>81</v>
@@ -14524,7 +14490,7 @@
         <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>81</v>
@@ -14539,10 +14505,10 @@
         <v>404</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>406</v>
+        <v>510</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
@@ -14627,10 +14593,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14742,10 +14708,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14859,10 +14825,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14888,16 +14854,16 @@
         <v>169</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>81</v>
@@ -14907,7 +14873,7 @@
         <v>81</v>
       </c>
       <c r="S102" t="s" s="2">
-        <v>513</v>
+        <v>428</v>
       </c>
       <c r="T102" t="s" s="2">
         <v>81</v>
@@ -14925,10 +14891,10 @@
         <v>262</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>81</v>
@@ -14946,7 +14912,7 @@
         <v>81</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14961,7 +14927,7 @@
         <v>101</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL102" t="s" s="2">
         <v>81</v>
@@ -14981,7 +14947,7 @@
         <v>514</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -15004,13 +14970,13 @@
         <v>90</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="N103" t="s" s="2">
         <v>437</v>
@@ -15080,7 +15046,7 @@
         <v>101</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL103" t="s" s="2">
         <v>81</v>
@@ -15599,7 +15565,7 @@
         <v>522</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>406</v>
+        <v>523</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
@@ -15684,10 +15650,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15799,10 +15765,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15916,10 +15882,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15945,16 +15911,16 @@
         <v>169</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O111" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>81</v>
@@ -15964,7 +15930,7 @@
         <v>81</v>
       </c>
       <c r="S111" t="s" s="2">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>81</v>
@@ -15982,10 +15948,10 @@
         <v>262</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z111" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA111" t="s" s="2">
         <v>81</v>
@@ -16003,7 +15969,7 @@
         <v>81</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -16018,7 +15984,7 @@
         <v>101</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>81</v>
@@ -16035,10 +16001,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -16061,13 +16027,13 @@
         <v>90</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="N112" t="s" s="2">
         <v>437</v>
@@ -16083,7 +16049,7 @@
         <v>81</v>
       </c>
       <c r="S112" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="T112" t="s" s="2">
         <v>81</v>
@@ -16137,7 +16103,7 @@
         <v>101</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>81</v>
@@ -16154,7 +16120,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>445</v>
@@ -16165,7 +16131,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>89</v>
@@ -16183,7 +16149,7 @@
         <v>131</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>446</v>
+        <v>531</v>
       </c>
       <c r="M113" t="s" s="2">
         <v>447</v>
@@ -16202,7 +16168,7 @@
         <v>81</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>81</v>
+        <v>532</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>451</v>
@@ -16273,7 +16239,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>456</v>
@@ -16390,7 +16356,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>465</v>
@@ -16505,7 +16471,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>472</v>
@@ -16622,13 +16588,13 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>403</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D117" t="s" s="2">
         <v>81</v>
@@ -16653,10 +16619,10 @@
         <v>404</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>406</v>
+        <v>538</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
@@ -16741,10 +16707,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16856,10 +16822,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16973,10 +16939,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -17002,16 +16968,16 @@
         <v>169</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>81</v>
@@ -17021,7 +16987,7 @@
         <v>81</v>
       </c>
       <c r="S120" t="s" s="2">
-        <v>427</v>
+        <v>542</v>
       </c>
       <c r="T120" t="s" s="2">
         <v>81</v>
@@ -17039,10 +17005,10 @@
         <v>262</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>81</v>
@@ -17060,7 +17026,7 @@
         <v>81</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -17075,7 +17041,7 @@
         <v>101</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>81</v>
@@ -17092,10 +17058,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -17118,13 +17084,13 @@
         <v>90</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>437</v>
@@ -17140,7 +17106,7 @@
         <v>81</v>
       </c>
       <c r="S121" t="s" s="2">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="T121" t="s" s="2">
         <v>81</v>
@@ -17194,7 +17160,7 @@
         <v>101</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>81</v>
@@ -17211,7 +17177,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>445</v>
@@ -17240,7 +17206,7 @@
         <v>131</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="M122" t="s" s="2">
         <v>447</v>
@@ -17259,7 +17225,7 @@
         <v>81</v>
       </c>
       <c r="S122" t="s" s="2">
-        <v>450</v>
+        <v>547</v>
       </c>
       <c r="T122" t="s" s="2">
         <v>451</v>
@@ -17330,7 +17296,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>456</v>
@@ -17447,7 +17413,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>465</v>
@@ -17562,7 +17528,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>472</v>
@@ -17679,14 +17645,12 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C126" t="s" s="2">
-        <v>546</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
         <v>81</v>
       </c>
@@ -17695,34 +17659,38 @@
         <v>79</v>
       </c>
       <c r="G126" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H126" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J126" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>404</v>
+        <v>552</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N126" s="2"/>
+        <v>554</v>
+      </c>
+      <c r="N126" t="s" s="2">
+        <v>555</v>
+      </c>
       <c r="O126" t="s" s="2">
-        <v>407</v>
+        <v>556</v>
       </c>
       <c r="P126" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="R126" t="s" s="2">
         <v>81</v>
       </c>
@@ -17766,13 +17734,13 @@
         <v>81</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>403</v>
+        <v>551</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH126" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI126" t="s" s="2">
         <v>81</v>
@@ -17781,16 +17749,16 @@
         <v>101</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>410</v>
+        <v>558</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>411</v>
+        <v>107</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>412</v>
+        <v>559</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>413</v>
+        <v>81</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>81</v>
@@ -17798,10 +17766,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>418</v>
+        <v>560</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17809,10 +17777,10 @@
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>81</v>
@@ -17821,19 +17789,23 @@
         <v>81</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>103</v>
+        <v>561</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>104</v>
+        <v>562</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
+        <v>563</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="P127" t="s" s="2">
         <v>81</v>
       </c>
@@ -17869,43 +17841,41 @@
         <v>81</v>
       </c>
       <c r="AB127" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC127" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>566</v>
+      </c>
+      <c r="AC127" s="2"/>
       <c r="AD127" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>106</v>
+        <v>560</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI127" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>107</v>
+        <v>567</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>81</v>
+        <v>568</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>81</v>
+        <v>569</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>81</v>
@@ -17913,14 +17883,16 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C128" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="C128" t="s" s="2">
+        <v>571</v>
+      </c>
       <c r="D128" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -17936,21 +17908,23 @@
         <v>81</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>110</v>
+        <v>572</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>111</v>
+        <v>573</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>112</v>
+        <v>574</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O128" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="O128" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="P128" t="s" s="2">
         <v>81</v>
       </c>
@@ -17986,19 +17960,19 @@
         <v>81</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC128" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AD128" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>117</v>
+        <v>560</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -18010,19 +17984,19 @@
         <v>81</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>107</v>
+        <v>567</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>81</v>
+        <v>568</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>81</v>
+        <v>569</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>81</v>
@@ -18030,10 +18004,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>422</v>
+        <v>576</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -18050,26 +18024,22 @@
         <v>81</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>423</v>
+        <v>104</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>81</v>
       </c>
@@ -18078,7 +18048,7 @@
         <v>81</v>
       </c>
       <c r="S129" t="s" s="2">
-        <v>551</v>
+        <v>81</v>
       </c>
       <c r="T129" t="s" s="2">
         <v>81</v>
@@ -18093,13 +18063,13 @@
         <v>81</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>428</v>
+        <v>81</v>
       </c>
       <c r="Z129" t="s" s="2">
-        <v>429</v>
+        <v>81</v>
       </c>
       <c r="AA129" t="s" s="2">
         <v>81</v>
@@ -18117,7 +18087,7 @@
         <v>81</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -18129,10 +18099,10 @@
         <v>81</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>431</v>
+        <v>107</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>81</v>
@@ -18141,7 +18111,7 @@
         <v>81</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>81</v>
@@ -18149,21 +18119,21 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>433</v>
+        <v>578</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E130" s="2"/>
       <c r="F130" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>81</v>
@@ -18172,23 +18142,21 @@
         <v>81</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>434</v>
+        <v>110</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>435</v>
+        <v>111</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>436</v>
+        <v>112</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O130" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>81</v>
       </c>
@@ -18197,7 +18165,7 @@
         <v>81</v>
       </c>
       <c r="S130" t="s" s="2">
-        <v>553</v>
+        <v>81</v>
       </c>
       <c r="T130" t="s" s="2">
         <v>81</v>
@@ -18212,46 +18180,46 @@
         <v>81</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>440</v>
+        <v>81</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>441</v>
+        <v>81</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB130" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AC130" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AD130" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>442</v>
+        <v>117</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>431</v>
+        <v>107</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>81</v>
@@ -18260,7 +18228,7 @@
         <v>81</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>443</v>
+        <v>81</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>81</v>
@@ -18268,10 +18236,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>554</v>
+        <v>579</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>445</v>
+        <v>580</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -18279,7 +18247,7 @@
       </c>
       <c r="E131" s="2"/>
       <c r="F131" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>89</v>
@@ -18288,25 +18256,25 @@
         <v>81</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J131" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>447</v>
+        <v>582</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>448</v>
+        <v>583</v>
       </c>
       <c r="O131" t="s" s="2">
-        <v>449</v>
+        <v>584</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>81</v>
@@ -18316,10 +18284,10 @@
         <v>81</v>
       </c>
       <c r="S131" t="s" s="2">
-        <v>556</v>
+        <v>501</v>
       </c>
       <c r="T131" t="s" s="2">
-        <v>451</v>
+        <v>81</v>
       </c>
       <c r="U131" t="s" s="2">
         <v>81</v>
@@ -18331,13 +18299,13 @@
         <v>81</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>81</v>
+        <v>585</v>
       </c>
       <c r="Z131" t="s" s="2">
-        <v>81</v>
+        <v>586</v>
       </c>
       <c r="AA131" t="s" s="2">
         <v>81</v>
@@ -18355,7 +18323,7 @@
         <v>81</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>452</v>
+        <v>587</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -18370,7 +18338,7 @@
         <v>101</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>453</v>
+        <v>314</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>81</v>
@@ -18379,7 +18347,7 @@
         <v>81</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>454</v>
+        <v>588</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>81</v>
@@ -18387,10 +18355,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>456</v>
+        <v>590</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -18398,7 +18366,7 @@
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G132" t="s" s="2">
         <v>89</v>
@@ -18416,15 +18384,17 @@
         <v>103</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>457</v>
+        <v>591</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>458</v>
+        <v>592</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="O132" s="2"/>
+        <v>593</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P132" t="s" s="2">
         <v>81</v>
       </c>
@@ -18436,7 +18406,7 @@
         <v>81</v>
       </c>
       <c r="T132" t="s" s="2">
-        <v>460</v>
+        <v>81</v>
       </c>
       <c r="U132" t="s" s="2">
         <v>81</v>
@@ -18472,7 +18442,7 @@
         <v>81</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>461</v>
+        <v>594</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -18487,7 +18457,7 @@
         <v>101</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>462</v>
+        <v>334</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>81</v>
@@ -18496,7 +18466,7 @@
         <v>81</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>463</v>
+        <v>595</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>81</v>
@@ -18504,14 +18474,14 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>558</v>
+        <v>596</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>465</v>
+        <v>597</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>81</v>
+        <v>598</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -18530,15 +18500,17 @@
         <v>90</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>390</v>
+        <v>103</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>466</v>
+        <v>599</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N133" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="O133" s="2"/>
       <c r="P133" t="s" s="2">
         <v>81</v>
@@ -18587,7 +18559,7 @@
         <v>81</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>468</v>
+        <v>602</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
@@ -18602,7 +18574,7 @@
         <v>101</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>469</v>
+        <v>603</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>81</v>
@@ -18611,7 +18583,7 @@
         <v>81</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>470</v>
+        <v>604</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>81</v>
@@ -18619,21 +18591,21 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>559</v>
+        <v>605</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>472</v>
+        <v>606</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
-        <v>81</v>
+        <v>607</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>81</v>
@@ -18645,16 +18617,16 @@
         <v>90</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>473</v>
+        <v>103</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>474</v>
+        <v>608</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>475</v>
+        <v>609</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>476</v>
+        <v>610</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" t="s" s="2">
@@ -18704,13 +18676,13 @@
         <v>81</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>477</v>
+        <v>611</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH134" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI134" t="s" s="2">
         <v>81</v>
@@ -18719,7 +18691,7 @@
         <v>101</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>478</v>
+        <v>612</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>81</v>
@@ -18728,7 +18700,7 @@
         <v>81</v>
       </c>
       <c r="AN134" t="s" s="2">
-        <v>479</v>
+        <v>613</v>
       </c>
       <c r="AO134" t="s" s="2">
         <v>81</v>
@@ -18736,10 +18708,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>560</v>
+        <v>614</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>560</v>
+        <v>615</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18750,38 +18722,32 @@
         <v>79</v>
       </c>
       <c r="G135" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H135" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J135" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>561</v>
+        <v>103</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>562</v>
+        <v>616</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>565</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Q135" t="s" s="2">
-        <v>566</v>
-      </c>
+      <c r="Q135" s="2"/>
       <c r="R135" t="s" s="2">
         <v>81</v>
       </c>
@@ -18825,13 +18791,13 @@
         <v>81</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>81</v>
@@ -18840,16 +18806,16 @@
         <v>101</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>567</v>
+        <v>619</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM135" t="s" s="2">
-        <v>568</v>
+        <v>81</v>
       </c>
       <c r="AN135" t="s" s="2">
-        <v>81</v>
+        <v>620</v>
       </c>
       <c r="AO135" t="s" s="2">
         <v>81</v>
@@ -18857,10 +18823,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>569</v>
+        <v>621</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>569</v>
+        <v>622</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18868,7 +18834,7 @@
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>80</v>
@@ -18883,20 +18849,16 @@
         <v>90</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>570</v>
+        <v>103</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>571</v>
+        <v>623</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="O136" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
       <c r="P136" t="s" s="2">
         <v>81</v>
       </c>
@@ -18932,17 +18894,19 @@
         <v>81</v>
       </c>
       <c r="AB136" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="AC136" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD136" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>569</v>
+        <v>625</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -18957,16 +18921,16 @@
         <v>101</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>577</v>
+        <v>81</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>578</v>
+        <v>627</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>81</v>
@@ -18974,14 +18938,12 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>579</v>
+        <v>628</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="C137" t="s" s="2">
-        <v>580</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
         <v>81</v>
       </c>
@@ -18990,7 +18952,7 @@
         <v>79</v>
       </c>
       <c r="G137" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H137" t="s" s="2">
         <v>81</v>
@@ -19002,19 +18964,17 @@
         <v>90</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>581</v>
+        <v>390</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>582</v>
+        <v>630</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="N137" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
-        <v>574</v>
+        <v>632</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>81</v>
@@ -19063,13 +19023,13 @@
         <v>81</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>81</v>
@@ -19078,16 +19038,16 @@
         <v>101</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>576</v>
+        <v>396</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>577</v>
+        <v>81</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>578</v>
+        <v>634</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>81</v>
@@ -19095,18 +19055,20 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>584</v>
+        <v>635</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="C138" s="2"/>
+        <v>560</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="D138" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G138" t="s" s="2">
         <v>89</v>
@@ -19118,19 +19080,23 @@
         <v>81</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>103</v>
+        <v>572</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>104</v>
+        <v>637</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
+        <v>638</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="O138" t="s" s="2">
+        <v>565</v>
+      </c>
       <c r="P138" t="s" s="2">
         <v>81</v>
       </c>
@@ -19178,31 +19144,31 @@
         <v>81</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>106</v>
+        <v>560</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH138" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI138" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>107</v>
+        <v>567</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>81</v>
+        <v>568</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>81</v>
+        <v>569</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>81</v>
@@ -19210,21 +19176,21 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>586</v>
+        <v>639</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G139" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H139" t="s" s="2">
         <v>81</v>
@@ -19236,17 +19202,15 @@
         <v>81</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="P139" t="s" s="2">
         <v>81</v>
@@ -19283,31 +19247,31 @@
         <v>81</v>
       </c>
       <c r="AB139" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC139" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AD139" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH139" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI139" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ139" t="s" s="2">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="AK139" t="s" s="2">
         <v>107</v>
@@ -19327,10 +19291,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>588</v>
+        <v>640</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -19341,32 +19305,28 @@
         <v>89</v>
       </c>
       <c r="G140" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H140" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>590</v>
+        <v>195</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O140" t="s" s="2">
-        <v>593</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
         <v>81</v>
       </c>
@@ -19375,7 +19335,7 @@
         <v>81</v>
       </c>
       <c r="S140" t="s" s="2">
-        <v>513</v>
+        <v>81</v>
       </c>
       <c r="T140" t="s" s="2">
         <v>81</v>
@@ -19390,46 +19350,46 @@
         <v>81</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>594</v>
+        <v>81</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>595</v>
+        <v>81</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB140" t="s" s="2">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="AC140" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="AD140" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>596</v>
+        <v>117</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH140" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI140" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>81</v>
@@ -19438,7 +19398,7 @@
         <v>81</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>597</v>
+        <v>81</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>81</v>
@@ -19446,18 +19406,20 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>598</v>
+        <v>641</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="C141" s="2"/>
+        <v>578</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>642</v>
+      </c>
       <c r="D141" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G141" t="s" s="2">
         <v>89</v>
@@ -19469,23 +19431,19 @@
         <v>81</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>103</v>
+        <v>643</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>600</v>
+        <v>644</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="O141" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
         <v>81</v>
       </c>
@@ -19533,22 +19491,22 @@
         <v>81</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>603</v>
+        <v>117</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH141" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI141" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ141" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>334</v>
+        <v>81</v>
       </c>
       <c r="AL141" t="s" s="2">
         <v>81</v>
@@ -19557,7 +19515,7 @@
         <v>81</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>604</v>
+        <v>81</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>81</v>
@@ -19565,18 +19523,18 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>605</v>
+        <v>646</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>607</v>
+        <v>81</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G142" t="s" s="2">
         <v>89</v>
@@ -19585,24 +19543,26 @@
         <v>81</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J142" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>609</v>
+        <v>582</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="O142" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="O142" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="P142" t="s" s="2">
         <v>81</v>
       </c>
@@ -19611,7 +19571,7 @@
         <v>81</v>
       </c>
       <c r="S142" t="s" s="2">
-        <v>81</v>
+        <v>527</v>
       </c>
       <c r="T142" t="s" s="2">
         <v>81</v>
@@ -19626,13 +19586,13 @@
         <v>81</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="Y142" t="s" s="2">
-        <v>81</v>
+        <v>585</v>
       </c>
       <c r="Z142" t="s" s="2">
-        <v>81</v>
+        <v>586</v>
       </c>
       <c r="AA142" t="s" s="2">
         <v>81</v>
@@ -19650,7 +19610,7 @@
         <v>81</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
@@ -19665,7 +19625,7 @@
         <v>101</v>
       </c>
       <c r="AK142" t="s" s="2">
-        <v>612</v>
+        <v>314</v>
       </c>
       <c r="AL142" t="s" s="2">
         <v>81</v>
@@ -19674,7 +19634,7 @@
         <v>81</v>
       </c>
       <c r="AN142" t="s" s="2">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="AO142" t="s" s="2">
         <v>81</v>
@@ -19682,21 +19642,21 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>614</v>
+        <v>647</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>616</v>
+        <v>81</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G143" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H143" t="s" s="2">
         <v>81</v>
@@ -19711,15 +19671,17 @@
         <v>103</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="O143" s="2"/>
+        <v>593</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="P143" t="s" s="2">
         <v>81</v>
       </c>
@@ -19767,13 +19729,13 @@
         <v>81</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH143" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI143" t="s" s="2">
         <v>81</v>
@@ -19782,7 +19744,7 @@
         <v>101</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>621</v>
+        <v>334</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>81</v>
@@ -19791,7 +19753,7 @@
         <v>81</v>
       </c>
       <c r="AN143" t="s" s="2">
-        <v>622</v>
+        <v>595</v>
       </c>
       <c r="AO143" t="s" s="2">
         <v>81</v>
@@ -19799,21 +19761,21 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
-        <v>81</v>
+        <v>598</v>
       </c>
       <c r="E144" s="2"/>
       <c r="F144" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G144" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H144" t="s" s="2">
         <v>81</v>
@@ -19828,12 +19790,14 @@
         <v>103</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N144" s="2"/>
+        <v>600</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>601</v>
+      </c>
       <c r="O144" s="2"/>
       <c r="P144" t="s" s="2">
         <v>81</v>
@@ -19882,13 +19846,13 @@
         <v>81</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH144" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI144" t="s" s="2">
         <v>81</v>
@@ -19897,7 +19861,7 @@
         <v>101</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>628</v>
+        <v>603</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>81</v>
@@ -19906,7 +19870,7 @@
         <v>81</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>81</v>
@@ -19914,21 +19878,21 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
-        <v>81</v>
+        <v>607</v>
       </c>
       <c r="E145" s="2"/>
       <c r="F145" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G145" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H145" t="s" s="2">
         <v>81</v>
@@ -19943,12 +19907,14 @@
         <v>103</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N145" s="2"/>
+        <v>609</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>610</v>
+      </c>
       <c r="O145" s="2"/>
       <c r="P145" t="s" s="2">
         <v>81</v>
@@ -19997,7 +19963,7 @@
         <v>81</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>79</v>
@@ -20012,7 +19978,7 @@
         <v>101</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>81</v>
@@ -20021,7 +19987,7 @@
         <v>81</v>
       </c>
       <c r="AN145" t="s" s="2">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="AO145" t="s" s="2">
         <v>81</v>
@@ -20029,10 +19995,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20043,7 +20009,7 @@
         <v>79</v>
       </c>
       <c r="G146" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H146" t="s" s="2">
         <v>81</v>
@@ -20055,18 +20021,16 @@
         <v>90</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>390</v>
+        <v>103</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="N146" s="2"/>
-      <c r="O146" t="s" s="2">
-        <v>641</v>
-      </c>
+      <c r="O146" s="2"/>
       <c r="P146" t="s" s="2">
         <v>81</v>
       </c>
@@ -20114,13 +20078,13 @@
         <v>81</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH146" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI146" t="s" s="2">
         <v>81</v>
@@ -20129,7 +20093,7 @@
         <v>101</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>396</v>
+        <v>619</v>
       </c>
       <c r="AL146" t="s" s="2">
         <v>81</v>
@@ -20138,7 +20102,7 @@
         <v>81</v>
       </c>
       <c r="AN146" t="s" s="2">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="AO146" t="s" s="2">
         <v>81</v>
@@ -20146,23 +20110,21 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="C147" t="s" s="2">
-        <v>645</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E147" s="2"/>
       <c r="F147" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G147" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H147" t="s" s="2">
         <v>81</v>
@@ -20174,20 +20136,16 @@
         <v>90</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>581</v>
+        <v>103</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="O147" t="s" s="2">
-        <v>574</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
       <c r="P147" t="s" s="2">
         <v>81</v>
       </c>
@@ -20235,7 +20193,7 @@
         <v>81</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>569</v>
+        <v>625</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>79</v>
@@ -20250,16 +20208,16 @@
         <v>101</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>576</v>
+        <v>626</v>
       </c>
       <c r="AL147" t="s" s="2">
-        <v>577</v>
+        <v>81</v>
       </c>
       <c r="AM147" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN147" t="s" s="2">
-        <v>578</v>
+        <v>627</v>
       </c>
       <c r="AO147" t="s" s="2">
         <v>81</v>
@@ -20267,10 +20225,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>585</v>
+        <v>629</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -20290,19 +20248,21 @@
         <v>81</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>103</v>
+        <v>390</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>104</v>
+        <v>630</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>105</v>
+        <v>631</v>
       </c>
       <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
+      <c r="O148" t="s" s="2">
+        <v>632</v>
+      </c>
       <c r="P148" t="s" s="2">
         <v>81</v>
       </c>
@@ -20350,7 +20310,7 @@
         <v>81</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>106</v>
+        <v>633</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>79</v>
@@ -20362,10 +20322,10 @@
         <v>81</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>107</v>
+        <v>396</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>81</v>
@@ -20374,7 +20334,7 @@
         <v>81</v>
       </c>
       <c r="AN148" t="s" s="2">
-        <v>81</v>
+        <v>634</v>
       </c>
       <c r="AO148" t="s" s="2">
         <v>81</v>
@@ -20382,10 +20342,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>587</v>
+        <v>654</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20393,7 +20353,7 @@
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G149" t="s" s="2">
         <v>80</v>
@@ -20408,16 +20368,20 @@
         <v>81</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>110</v>
+        <v>655</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>195</v>
+        <v>656</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
+        <v>657</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="O149" t="s" s="2">
+        <v>659</v>
+      </c>
       <c r="P149" t="s" s="2">
         <v>81</v>
       </c>
@@ -20453,19 +20417,19 @@
         <v>81</v>
       </c>
       <c r="AB149" t="s" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="AC149" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AD149" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>117</v>
+        <v>654</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>79</v>
@@ -20474,13 +20438,13 @@
         <v>80</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>118</v>
+        <v>660</v>
       </c>
       <c r="AK149" t="s" s="2">
-        <v>81</v>
+        <v>661</v>
       </c>
       <c r="AL149" t="s" s="2">
         <v>81</v>
@@ -20489,7 +20453,7 @@
         <v>81</v>
       </c>
       <c r="AN149" t="s" s="2">
-        <v>81</v>
+        <v>662</v>
       </c>
       <c r="AO149" t="s" s="2">
         <v>81</v>
@@ -20497,14 +20461,12 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="C150" t="s" s="2">
-        <v>651</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
         <v>81</v>
       </c>
@@ -20522,19 +20484,23 @@
         <v>81</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>652</v>
+        <v>169</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
+        <v>665</v>
+      </c>
+      <c r="N150" t="s" s="2">
+        <v>666</v>
+      </c>
+      <c r="O150" t="s" s="2">
+        <v>667</v>
+      </c>
       <c r="P150" t="s" s="2">
         <v>81</v>
       </c>
@@ -20558,13 +20524,11 @@
         <v>81</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y150" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="Y150" s="2"/>
       <c r="Z150" t="s" s="2">
-        <v>81</v>
+        <v>668</v>
       </c>
       <c r="AA150" t="s" s="2">
         <v>81</v>
@@ -20582,31 +20546,31 @@
         <v>81</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>117</v>
+        <v>663</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>81</v>
+        <v>669</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>81</v>
+        <v>670</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN150" t="s" s="2">
-        <v>81</v>
+        <v>671</v>
       </c>
       <c r="AO150" t="s" s="2">
         <v>81</v>
@@ -20614,10 +20578,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>655</v>
+        <v>672</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>589</v>
+        <v>672</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -20634,25 +20598,25 @@
         <v>81</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J151" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>590</v>
+        <v>673</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>591</v>
+        <v>673</v>
       </c>
       <c r="N151" t="s" s="2">
-        <v>592</v>
+        <v>674</v>
       </c>
       <c r="O151" t="s" s="2">
-        <v>593</v>
+        <v>675</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>81</v>
@@ -20662,7 +20626,7 @@
         <v>81</v>
       </c>
       <c r="S151" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="T151" t="s" s="2">
         <v>81</v>
@@ -20677,13 +20641,13 @@
         <v>81</v>
       </c>
       <c r="X151" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="Y151" t="s" s="2">
-        <v>594</v>
+        <v>81</v>
       </c>
       <c r="Z151" t="s" s="2">
-        <v>595</v>
+        <v>81</v>
       </c>
       <c r="AA151" t="s" s="2">
         <v>81</v>
@@ -20701,7 +20665,7 @@
         <v>81</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>596</v>
+        <v>672</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>79</v>
@@ -20716,27 +20680,27 @@
         <v>101</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>314</v>
+        <v>676</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>81</v>
+        <v>677</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN151" t="s" s="2">
-        <v>597</v>
+        <v>678</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>81</v>
+        <v>679</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>656</v>
+        <v>680</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>599</v>
+        <v>680</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20753,25 +20717,25 @@
         <v>81</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J152" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>103</v>
+        <v>681</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>600</v>
+        <v>682</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>601</v>
+        <v>683</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>602</v>
+        <v>684</v>
       </c>
       <c r="O152" t="s" s="2">
-        <v>331</v>
+        <v>685</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>81</v>
@@ -20820,7 +20784,7 @@
         <v>81</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>603</v>
+        <v>680</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -20835,16 +20799,16 @@
         <v>101</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>334</v>
+        <v>686</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN152" t="s" s="2">
-        <v>604</v>
+        <v>687</v>
       </c>
       <c r="AO152" t="s" s="2">
         <v>81</v>
@@ -20852,21 +20816,21 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>657</v>
+        <v>688</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>606</v>
+        <v>688</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
-        <v>607</v>
+        <v>81</v>
       </c>
       <c r="E153" s="2"/>
       <c r="F153" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G153" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H153" t="s" s="2">
         <v>81</v>
@@ -20875,21 +20839,23 @@
         <v>81</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>103</v>
+        <v>289</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>608</v>
+        <v>290</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>609</v>
+        <v>291</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="O153" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="O153" t="s" s="2">
+        <v>689</v>
+      </c>
       <c r="P153" t="s" s="2">
         <v>81</v>
       </c>
@@ -20937,22 +20903,22 @@
         <v>81</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>611</v>
+        <v>688</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH153" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI153" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="AJ153" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>612</v>
+        <v>293</v>
       </c>
       <c r="AL153" t="s" s="2">
         <v>81</v>
@@ -20961,7 +20927,7 @@
         <v>81</v>
       </c>
       <c r="AN153" t="s" s="2">
-        <v>613</v>
+        <v>294</v>
       </c>
       <c r="AO153" t="s" s="2">
         <v>81</v>
@@ -20969,18 +20935,18 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
-        <v>616</v>
+        <v>81</v>
       </c>
       <c r="E154" s="2"/>
       <c r="F154" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G154" t="s" s="2">
         <v>89</v>
@@ -20992,21 +20958,21 @@
         <v>81</v>
       </c>
       <c r="J154" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>103</v>
+        <v>435</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>659</v>
+        <v>691</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N154" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="O154" s="2"/>
+        <v>692</v>
+      </c>
+      <c r="N154" s="2"/>
+      <c r="O154" t="s" s="2">
+        <v>693</v>
+      </c>
       <c r="P154" t="s" s="2">
         <v>81</v>
       </c>
@@ -21030,13 +20996,11 @@
         <v>81</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y154" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y154" s="2"/>
       <c r="Z154" t="s" s="2">
-        <v>81</v>
+        <v>694</v>
       </c>
       <c r="AA154" t="s" s="2">
         <v>81</v>
@@ -21054,13 +21018,13 @@
         <v>81</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>620</v>
+        <v>690</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH154" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI154" t="s" s="2">
         <v>81</v>
@@ -21069,16 +21033,16 @@
         <v>101</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>621</v>
+        <v>695</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>81</v>
+        <v>696</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN154" t="s" s="2">
-        <v>622</v>
+        <v>697</v>
       </c>
       <c r="AO154" t="s" s="2">
         <v>81</v>
@@ -21086,10 +21050,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>660</v>
+        <v>698</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>624</v>
+        <v>698</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21100,7 +21064,7 @@
         <v>79</v>
       </c>
       <c r="G155" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H155" t="s" s="2">
         <v>81</v>
@@ -21109,19 +21073,23 @@
         <v>81</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>103</v>
+        <v>699</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
+        <v>701</v>
+      </c>
+      <c r="N155" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="O155" t="s" s="2">
+        <v>703</v>
+      </c>
       <c r="P155" t="s" s="2">
         <v>81</v>
       </c>
@@ -21169,13 +21137,13 @@
         <v>81</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH155" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI155" t="s" s="2">
         <v>81</v>
@@ -21184,16 +21152,16 @@
         <v>101</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="AL155" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM155" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN155" t="s" s="2">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="AO155" t="s" s="2">
         <v>81</v>
@@ -21201,10 +21169,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>661</v>
+        <v>706</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21224,19 +21192,23 @@
         <v>81</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K156" t="s" s="2">
-        <v>103</v>
+        <v>707</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>632</v>
+        <v>708</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
+        <v>709</v>
+      </c>
+      <c r="N156" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="O156" t="s" s="2">
+        <v>711</v>
+      </c>
       <c r="P156" t="s" s="2">
         <v>81</v>
       </c>
@@ -21284,7 +21256,7 @@
         <v>81</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>79</v>
@@ -21299,16 +21271,16 @@
         <v>101</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="AL156" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM156" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN156" t="s" s="2">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="AO156" t="s" s="2">
         <v>81</v>
@@ -21316,10 +21288,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>662</v>
+        <v>714</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>638</v>
+        <v>714</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21330,7 +21302,7 @@
         <v>79</v>
       </c>
       <c r="G157" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H157" t="s" s="2">
         <v>81</v>
@@ -21339,20 +21311,22 @@
         <v>81</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K157" t="s" s="2">
-        <v>390</v>
+        <v>715</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="N157" s="2"/>
+        <v>717</v>
+      </c>
+      <c r="N157" t="s" s="2">
+        <v>718</v>
+      </c>
       <c r="O157" t="s" s="2">
-        <v>641</v>
+        <v>719</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>81</v>
@@ -21401,31 +21375,31 @@
         <v>81</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>642</v>
+        <v>714</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ157" t="s" s="2">
-        <v>101</v>
+        <v>720</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>396</v>
+        <v>721</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN157" t="s" s="2">
-        <v>643</v>
+        <v>81</v>
       </c>
       <c r="AO157" t="s" s="2">
         <v>81</v>
@@ -21433,10 +21407,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>663</v>
+        <v>722</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>663</v>
+        <v>722</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -21447,7 +21421,7 @@
         <v>79</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>81</v>
@@ -21459,20 +21433,16 @@
         <v>81</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>664</v>
+        <v>103</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>665</v>
+        <v>104</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>667</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>668</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N158" s="2"/>
+      <c r="O158" s="2"/>
       <c r="P158" t="s" s="2">
         <v>81</v>
       </c>
@@ -21520,22 +21490,22 @@
         <v>81</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>663</v>
+        <v>106</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>669</v>
+        <v>81</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>670</v>
+        <v>107</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>81</v>
@@ -21544,7 +21514,7 @@
         <v>81</v>
       </c>
       <c r="AN158" t="s" s="2">
-        <v>671</v>
+        <v>81</v>
       </c>
       <c r="AO158" t="s" s="2">
         <v>81</v>
@@ -21552,10 +21522,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>672</v>
+        <v>723</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>672</v>
+        <v>723</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -21563,10 +21533,10 @@
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G159" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H159" t="s" s="2">
         <v>81</v>
@@ -21575,23 +21545,19 @@
         <v>81</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>673</v>
+        <v>195</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>674</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>676</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
         <v>81</v>
       </c>
@@ -21615,53 +21581,53 @@
         <v>81</v>
       </c>
       <c r="X159" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="Y159" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y159" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z159" t="s" s="2">
-        <v>677</v>
+        <v>81</v>
       </c>
       <c r="AA159" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB159" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC159" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="AC159" s="2"/>
       <c r="AD159" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE159" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>672</v>
+        <v>117</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH159" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI159" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ159" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>678</v>
+        <v>81</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>679</v>
+        <v>81</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN159" t="s" s="2">
-        <v>680</v>
+        <v>81</v>
       </c>
       <c r="AO159" t="s" s="2">
         <v>81</v>
@@ -21669,18 +21635,20 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>681</v>
+        <v>724</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="C160" s="2"/>
+        <v>723</v>
+      </c>
+      <c r="C160" t="s" s="2">
+        <v>725</v>
+      </c>
       <c r="D160" t="s" s="2">
         <v>81</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G160" t="s" s="2">
         <v>89</v>
@@ -21692,23 +21660,19 @@
         <v>81</v>
       </c>
       <c r="J160" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>239</v>
+        <v>726</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>682</v>
+        <v>727</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>682</v>
-      </c>
-      <c r="N160" t="s" s="2">
-        <v>683</v>
-      </c>
-      <c r="O160" t="s" s="2">
-        <v>684</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="N160" s="2"/>
+      <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
         <v>81</v>
       </c>
@@ -21756,44 +21720,46 @@
         <v>81</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>681</v>
+        <v>117</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH160" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="AJ160" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>685</v>
+        <v>81</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>686</v>
+        <v>81</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN160" t="s" s="2">
-        <v>687</v>
+        <v>81</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>688</v>
+        <v>81</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>689</v>
+        <v>729</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>689</v>
-      </c>
-      <c r="C161" s="2"/>
+        <v>723</v>
+      </c>
+      <c r="C161" t="s" s="2">
+        <v>730</v>
+      </c>
       <c r="D161" t="s" s="2">
         <v>81</v>
       </c>
@@ -21808,26 +21774,22 @@
         <v>81</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>690</v>
+        <v>731</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>691</v>
+        <v>732</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="N161" t="s" s="2">
-        <v>693</v>
-      </c>
-      <c r="O161" t="s" s="2">
-        <v>694</v>
-      </c>
+        <v>733</v>
+      </c>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
       <c r="P161" t="s" s="2">
         <v>81</v>
       </c>
@@ -21875,31 +21837,31 @@
         <v>81</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>689</v>
+        <v>117</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH161" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="AJ161" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>695</v>
+        <v>81</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN161" t="s" s="2">
-        <v>696</v>
+        <v>81</v>
       </c>
       <c r="AO161" t="s" s="2">
         <v>81</v>
@@ -21907,14 +21869,14 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>697</v>
+        <v>734</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>697</v>
+        <v>734</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
-        <v>81</v>
+        <v>735</v>
       </c>
       <c r="E162" s="2"/>
       <c r="F162" t="s" s="2">
@@ -21927,25 +21889,25 @@
         <v>81</v>
       </c>
       <c r="I162" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J162" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>289</v>
+        <v>110</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>290</v>
+        <v>736</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>291</v>
+        <v>737</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>292</v>
+        <v>113</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>698</v>
+        <v>401</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>81</v>
@@ -21994,7 +21956,7 @@
         <v>81</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>697</v>
+        <v>738</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>79</v>
@@ -22003,13 +21965,13 @@
         <v>80</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="AJ162" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>293</v>
+        <v>192</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>81</v>
@@ -22018,7 +21980,7 @@
         <v>81</v>
       </c>
       <c r="AN162" t="s" s="2">
-        <v>294</v>
+        <v>81</v>
       </c>
       <c r="AO162" t="s" s="2">
         <v>81</v>
@@ -22026,10 +21988,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22037,7 +21999,7 @@
       </c>
       <c r="E163" s="2"/>
       <c r="F163" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>89</v>
@@ -22052,17 +22014,17 @@
         <v>81</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>701</v>
+        <v>741</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>702</v>
+        <v>742</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>81</v>
@@ -22089,33 +22051,33 @@
       <c r="X163" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Y163" s="2"/>
+      <c r="Y163" t="s" s="2">
+        <v>743</v>
+      </c>
       <c r="Z163" t="s" s="2">
-        <v>703</v>
+        <v>744</v>
       </c>
       <c r="AA163" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB163" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC163" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>745</v>
+      </c>
+      <c r="AC163" s="2"/>
       <c r="AD163" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH163" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI163" t="s" s="2">
         <v>81</v>
@@ -22124,16 +22086,16 @@
         <v>101</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>705</v>
+        <v>107</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN163" t="s" s="2">
-        <v>706</v>
+        <v>747</v>
       </c>
       <c r="AO163" t="s" s="2">
         <v>81</v>
@@ -22141,12 +22103,14 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>707</v>
+        <v>748</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>707</v>
-      </c>
-      <c r="C164" s="2"/>
+        <v>739</v>
+      </c>
+      <c r="C164" t="s" s="2">
+        <v>749</v>
+      </c>
       <c r="D164" t="s" s="2">
         <v>81</v>
       </c>
@@ -22167,19 +22131,17 @@
         <v>81</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>708</v>
+        <v>435</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>709</v>
+        <v>750</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>710</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>711</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
-        <v>712</v>
+        <v>742</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>81</v>
@@ -22204,13 +22166,11 @@
         <v>81</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y164" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y164" s="2"/>
       <c r="Z164" t="s" s="2">
-        <v>81</v>
+        <v>751</v>
       </c>
       <c r="AA164" t="s" s="2">
         <v>81</v>
@@ -22228,13 +22188,13 @@
         <v>81</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>707</v>
+        <v>739</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>81</v>
@@ -22243,7 +22203,7 @@
         <v>101</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>107</v>
@@ -22252,7 +22212,7 @@
         <v>81</v>
       </c>
       <c r="AN164" t="s" s="2">
-        <v>714</v>
+        <v>747</v>
       </c>
       <c r="AO164" t="s" s="2">
         <v>81</v>
@@ -22260,12 +22220,14 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>715</v>
+        <v>752</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="C165" s="2"/>
+        <v>739</v>
+      </c>
+      <c r="C165" t="s" s="2">
+        <v>753</v>
+      </c>
       <c r="D165" t="s" s="2">
         <v>81</v>
       </c>
@@ -22274,7 +22236,7 @@
         <v>79</v>
       </c>
       <c r="G165" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H165" t="s" s="2">
         <v>81</v>
@@ -22286,19 +22248,17 @@
         <v>81</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>716</v>
+        <v>435</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>717</v>
+        <v>754</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>718</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>719</v>
-      </c>
+        <v>741</v>
+      </c>
+      <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
-        <v>720</v>
+        <v>742</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>81</v>
@@ -22323,13 +22283,11 @@
         <v>81</v>
       </c>
       <c r="X165" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y165" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Y165" s="2"/>
       <c r="Z165" t="s" s="2">
-        <v>81</v>
+        <v>755</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>81</v>
@@ -22347,7 +22305,7 @@
         <v>81</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>715</v>
+        <v>739</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>79</v>
@@ -22362,7 +22320,7 @@
         <v>101</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>721</v>
+        <v>746</v>
       </c>
       <c r="AL165" t="s" s="2">
         <v>107</v>
@@ -22371,7 +22329,7 @@
         <v>81</v>
       </c>
       <c r="AN165" t="s" s="2">
-        <v>722</v>
+        <v>747</v>
       </c>
       <c r="AO165" t="s" s="2">
         <v>81</v>
@@ -22379,10 +22337,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -22393,7 +22351,7 @@
         <v>79</v>
       </c>
       <c r="G166" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H166" t="s" s="2">
         <v>81</v>
@@ -22405,19 +22363,19 @@
         <v>81</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>724</v>
+        <v>561</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>725</v>
+        <v>757</v>
       </c>
       <c r="M166" t="s" s="2">
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="N166" t="s" s="2">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="O166" t="s" s="2">
-        <v>728</v>
+        <v>760</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>81</v>
@@ -22466,31 +22424,31 @@
         <v>81</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH166" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="AJ166" t="s" s="2">
-        <v>729</v>
+        <v>101</v>
       </c>
       <c r="AK166" t="s" s="2">
-        <v>730</v>
+        <v>761</v>
       </c>
       <c r="AL166" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM166" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>81</v>
+        <v>762</v>
       </c>
       <c r="AO166" t="s" s="2">
         <v>81</v>
@@ -22498,10 +22456,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>731</v>
+        <v>763</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>731</v>
+        <v>763</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -22512,7 +22470,7 @@
         <v>79</v>
       </c>
       <c r="G167" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H167" t="s" s="2">
         <v>81</v>
@@ -22524,16 +22482,20 @@
         <v>81</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>103</v>
+        <v>655</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>104</v>
+        <v>656</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
+        <v>657</v>
+      </c>
+      <c r="N167" t="s" s="2">
+        <v>764</v>
+      </c>
+      <c r="O167" t="s" s="2">
+        <v>659</v>
+      </c>
       <c r="P167" t="s" s="2">
         <v>81</v>
       </c>
@@ -22581,22 +22543,22 @@
         <v>81</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>106</v>
+        <v>763</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH167" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="AJ167" t="s" s="2">
-        <v>81</v>
+        <v>660</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>107</v>
+        <v>661</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>81</v>
@@ -22605,7 +22567,7 @@
         <v>81</v>
       </c>
       <c r="AN167" t="s" s="2">
-        <v>81</v>
+        <v>662</v>
       </c>
       <c r="AO167" t="s" s="2">
         <v>81</v>
@@ -22613,10 +22575,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>732</v>
+        <v>765</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>732</v>
+        <v>765</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -22627,7 +22589,7 @@
         <v>79</v>
       </c>
       <c r="G168" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H168" t="s" s="2">
         <v>81</v>
@@ -22639,16 +22601,18 @@
         <v>81</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>110</v>
+        <v>766</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>195</v>
+        <v>767</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>196</v>
+        <v>768</v>
       </c>
       <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
+      <c r="O168" t="s" s="2">
+        <v>769</v>
+      </c>
       <c r="P168" t="s" s="2">
         <v>81</v>
       </c>
@@ -22684,41 +22648,43 @@
         <v>81</v>
       </c>
       <c r="AB168" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AC168" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC168" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD168" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>117</v>
+        <v>765</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH168" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI168" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>81</v>
+        <v>770</v>
       </c>
       <c r="AL168" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM168" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN168" t="s" s="2">
-        <v>81</v>
+        <v>771</v>
       </c>
       <c r="AO168" t="s" s="2">
         <v>81</v>
@@ -22726,14 +22692,12 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>733</v>
+        <v>772</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="C169" t="s" s="2">
-        <v>734</v>
-      </c>
+        <v>772</v>
+      </c>
+      <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
         <v>81</v>
       </c>
@@ -22754,16 +22718,18 @@
         <v>81</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>735</v>
+        <v>169</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>736</v>
+        <v>773</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>737</v>
+        <v>774</v>
       </c>
       <c r="N169" s="2"/>
-      <c r="O169" s="2"/>
+      <c r="O169" t="s" s="2">
+        <v>775</v>
+      </c>
       <c r="P169" t="s" s="2">
         <v>81</v>
       </c>
@@ -22787,13 +22753,13 @@
         <v>81</v>
       </c>
       <c r="X169" t="s" s="2">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>81</v>
+        <v>776</v>
       </c>
       <c r="Z169" t="s" s="2">
-        <v>81</v>
+        <v>777</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>81</v>
@@ -22811,31 +22777,31 @@
         <v>81</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>117</v>
+        <v>772</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH169" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="AJ169" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>81</v>
+        <v>669</v>
       </c>
       <c r="AL169" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM169" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN169" t="s" s="2">
-        <v>81</v>
+        <v>778</v>
       </c>
       <c r="AO169" t="s" s="2">
         <v>81</v>
@@ -22843,14 +22809,12 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>738</v>
+        <v>779</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>732</v>
-      </c>
-      <c r="C170" t="s" s="2">
-        <v>739</v>
-      </c>
+        <v>779</v>
+      </c>
+      <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
         <v>81</v>
       </c>
@@ -22871,16 +22835,18 @@
         <v>81</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>740</v>
+        <v>473</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>741</v>
+        <v>780</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>742</v>
+        <v>781</v>
       </c>
       <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
+      <c r="O170" t="s" s="2">
+        <v>782</v>
+      </c>
       <c r="P170" t="s" s="2">
         <v>81</v>
       </c>
@@ -22928,31 +22894,31 @@
         <v>81</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>117</v>
+        <v>779</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH170" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>203</v>
+        <v>783</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>81</v>
+        <v>784</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN170" t="s" s="2">
-        <v>81</v>
+        <v>785</v>
       </c>
       <c r="AO170" t="s" s="2">
         <v>81</v>
@@ -22960,46 +22926,42 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>743</v>
+        <v>786</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>743</v>
+        <v>786</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
-        <v>744</v>
+        <v>81</v>
       </c>
       <c r="E171" s="2"/>
       <c r="F171" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G171" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H171" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I171" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>110</v>
+        <v>390</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>745</v>
+        <v>787</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="N171" s="2"/>
+      <c r="O171" s="2"/>
       <c r="P171" t="s" s="2">
         <v>81</v>
       </c>
@@ -23047,25 +23009,25 @@
         <v>81</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>747</v>
+        <v>786</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH171" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI171" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ171" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>192</v>
+        <v>789</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>81</v>
@@ -23079,10 +23041,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>748</v>
+        <v>790</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>748</v>
+        <v>790</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23090,10 +23052,10 @@
       </c>
       <c r="E172" s="2"/>
       <c r="F172" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G172" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H172" t="s" s="2">
         <v>81</v>
@@ -23105,17 +23067,19 @@
         <v>81</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>434</v>
+        <v>715</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>749</v>
+        <v>791</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="N172" s="2"/>
+        <v>792</v>
+      </c>
+      <c r="N172" t="s" s="2">
+        <v>793</v>
+      </c>
       <c r="O172" t="s" s="2">
-        <v>751</v>
+        <v>794</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>81</v>
@@ -23140,29 +23104,31 @@
         <v>81</v>
       </c>
       <c r="X172" t="s" s="2">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>752</v>
+        <v>81</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>753</v>
+        <v>81</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AB172" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="AC172" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="AC172" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="AD172" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>748</v>
+        <v>790</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>79</v>
@@ -23177,16 +23143,16 @@
         <v>101</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>755</v>
+        <v>795</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>107</v>
+        <v>796</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN172" t="s" s="2">
-        <v>756</v>
+        <v>81</v>
       </c>
       <c r="AO172" t="s" s="2">
         <v>81</v>
@@ -23194,14 +23160,12 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>757</v>
+        <v>797</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="C173" t="s" s="2">
-        <v>758</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
         <v>81</v>
       </c>
@@ -23222,18 +23186,16 @@
         <v>81</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>434</v>
+        <v>103</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>759</v>
+        <v>104</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>750</v>
+        <v>105</v>
       </c>
       <c r="N173" s="2"/>
-      <c r="O173" t="s" s="2">
-        <v>751</v>
-      </c>
+      <c r="O173" s="2"/>
       <c r="P173" t="s" s="2">
         <v>81</v>
       </c>
@@ -23257,11 +23219,13 @@
         <v>81</v>
       </c>
       <c r="X173" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y173" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y173" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z173" t="s" s="2">
-        <v>760</v>
+        <v>81</v>
       </c>
       <c r="AA173" t="s" s="2">
         <v>81</v>
@@ -23279,31 +23243,31 @@
         <v>81</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>748</v>
+        <v>106</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH173" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI173" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>755</v>
+        <v>107</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN173" t="s" s="2">
-        <v>756</v>
+        <v>81</v>
       </c>
       <c r="AO173" t="s" s="2">
         <v>81</v>
@@ -23311,23 +23275,21 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>761</v>
+        <v>798</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="C174" t="s" s="2">
-        <v>762</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E174" s="2"/>
       <c r="F174" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G174" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H174" t="s" s="2">
         <v>81</v>
@@ -23339,18 +23301,18 @@
         <v>81</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>434</v>
+        <v>110</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>763</v>
+        <v>111</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="N174" s="2"/>
-      <c r="O174" t="s" s="2">
-        <v>751</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N174" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O174" s="2"/>
       <c r="P174" t="s" s="2">
         <v>81</v>
       </c>
@@ -23374,11 +23336,13 @@
         <v>81</v>
       </c>
       <c r="X174" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y174" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y174" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="Z174" t="s" s="2">
-        <v>764</v>
+        <v>81</v>
       </c>
       <c r="AA174" t="s" s="2">
         <v>81</v>
@@ -23396,7 +23360,7 @@
         <v>81</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>748</v>
+        <v>117</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>79</v>
@@ -23408,19 +23372,19 @@
         <v>81</v>
       </c>
       <c r="AJ174" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>755</v>
+        <v>107</v>
       </c>
       <c r="AL174" t="s" s="2">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="AM174" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN174" t="s" s="2">
-        <v>756</v>
+        <v>81</v>
       </c>
       <c r="AO174" t="s" s="2">
         <v>81</v>
@@ -23428,45 +23392,45 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>765</v>
+        <v>799</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>765</v>
+        <v>799</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
-        <v>81</v>
+        <v>735</v>
       </c>
       <c r="E175" s="2"/>
       <c r="F175" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G175" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H175" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I175" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J175" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>570</v>
+        <v>110</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>766</v>
+        <v>736</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>767</v>
+        <v>737</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>768</v>
+        <v>113</v>
       </c>
       <c r="O175" t="s" s="2">
-        <v>769</v>
+        <v>401</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>81</v>
@@ -23515,22 +23479,22 @@
         <v>81</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>765</v>
+        <v>738</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH175" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="AJ175" t="s" s="2">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AK175" t="s" s="2">
-        <v>770</v>
+        <v>192</v>
       </c>
       <c r="AL175" t="s" s="2">
         <v>81</v>
@@ -23539,7 +23503,7 @@
         <v>81</v>
       </c>
       <c r="AN175" t="s" s="2">
-        <v>771</v>
+        <v>81</v>
       </c>
       <c r="AO175" t="s" s="2">
         <v>81</v>
@@ -23547,10 +23511,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>772</v>
+        <v>800</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>772</v>
+        <v>800</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -23558,10 +23522,10 @@
       </c>
       <c r="E176" s="2"/>
       <c r="F176" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G176" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H176" t="s" s="2">
         <v>81</v>
@@ -23573,19 +23537,19 @@
         <v>81</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>664</v>
+        <v>435</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>665</v>
+        <v>801</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>666</v>
+        <v>802</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>773</v>
+        <v>803</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>668</v>
+        <v>804</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>81</v>
@@ -23610,13 +23574,13 @@
         <v>81</v>
       </c>
       <c r="X176" t="s" s="2">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>81</v>
@@ -23634,31 +23598,31 @@
         <v>81</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>772</v>
+        <v>800</v>
       </c>
       <c r="AG176" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH176" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI176" t="s" s="2">
-        <v>203</v>
+        <v>81</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>669</v>
+        <v>101</v>
       </c>
       <c r="AK176" t="s" s="2">
-        <v>670</v>
+        <v>805</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>81</v>
+        <v>806</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN176" t="s" s="2">
-        <v>671</v>
+        <v>807</v>
       </c>
       <c r="AO176" t="s" s="2">
         <v>81</v>
@@ -23666,10 +23630,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>774</v>
+        <v>808</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>774</v>
+        <v>808</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -23692,17 +23656,19 @@
         <v>81</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>775</v>
+        <v>552</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>776</v>
+        <v>809</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>777</v>
-      </c>
-      <c r="N177" s="2"/>
+        <v>810</v>
+      </c>
+      <c r="N177" t="s" s="2">
+        <v>811</v>
+      </c>
       <c r="O177" t="s" s="2">
-        <v>778</v>
+        <v>812</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>81</v>
@@ -23751,7 +23717,7 @@
         <v>81</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>774</v>
+        <v>808</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>79</v>
@@ -23766,16 +23732,16 @@
         <v>101</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>779</v>
+        <v>813</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>107</v>
+        <v>814</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN177" t="s" s="2">
-        <v>780</v>
+        <v>815</v>
       </c>
       <c r="AO177" t="s" s="2">
         <v>81</v>
@@ -23783,21 +23749,21 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>781</v>
+        <v>816</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>781</v>
+        <v>816</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
-        <v>81</v>
+        <v>817</v>
       </c>
       <c r="E178" s="2"/>
       <c r="F178" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G178" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H178" t="s" s="2">
         <v>81</v>
@@ -23809,18 +23775,18 @@
         <v>81</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>169</v>
+        <v>818</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>782</v>
+        <v>819</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="N178" s="2"/>
-      <c r="O178" t="s" s="2">
-        <v>784</v>
-      </c>
+        <v>820</v>
+      </c>
+      <c r="N178" t="s" s="2">
+        <v>821</v>
+      </c>
+      <c r="O178" s="2"/>
       <c r="P178" t="s" s="2">
         <v>81</v>
       </c>
@@ -23844,13 +23810,13 @@
         <v>81</v>
       </c>
       <c r="X178" t="s" s="2">
-        <v>262</v>
+        <v>81</v>
       </c>
       <c r="Y178" t="s" s="2">
-        <v>785</v>
+        <v>81</v>
       </c>
       <c r="Z178" t="s" s="2">
-        <v>786</v>
+        <v>81</v>
       </c>
       <c r="AA178" t="s" s="2">
         <v>81</v>
@@ -23868,13 +23834,13 @@
         <v>81</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>781</v>
+        <v>816</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH178" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI178" t="s" s="2">
         <v>81</v>
@@ -23883,7 +23849,7 @@
         <v>101</v>
       </c>
       <c r="AK178" t="s" s="2">
-        <v>678</v>
+        <v>822</v>
       </c>
       <c r="AL178" t="s" s="2">
         <v>107</v>
@@ -23892,7 +23858,7 @@
         <v>81</v>
       </c>
       <c r="AN178" t="s" s="2">
-        <v>787</v>
+        <v>823</v>
       </c>
       <c r="AO178" t="s" s="2">
         <v>81</v>
@@ -23900,10 +23866,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>788</v>
+        <v>824</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>788</v>
+        <v>824</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -23923,20 +23889,22 @@
         <v>81</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>473</v>
+        <v>825</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>789</v>
+        <v>826</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>790</v>
-      </c>
-      <c r="N179" s="2"/>
+        <v>827</v>
+      </c>
+      <c r="N179" t="s" s="2">
+        <v>828</v>
+      </c>
       <c r="O179" t="s" s="2">
-        <v>791</v>
+        <v>829</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>81</v>
@@ -23985,7 +23953,7 @@
         <v>81</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>788</v>
+        <v>824</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>79</v>
@@ -23994,22 +23962,22 @@
         <v>89</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>792</v>
+        <v>81</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>107</v>
+        <v>830</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN179" t="s" s="2">
-        <v>794</v>
+        <v>81</v>
       </c>
       <c r="AO179" t="s" s="2">
         <v>81</v>
@@ -24017,10 +23985,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>795</v>
+        <v>831</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>795</v>
+        <v>831</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24031,28 +23999,32 @@
         <v>79</v>
       </c>
       <c r="G180" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H180" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I180" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>390</v>
+        <v>715</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>796</v>
+        <v>832</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>797</v>
-      </c>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
+        <v>833</v>
+      </c>
+      <c r="N180" t="s" s="2">
+        <v>834</v>
+      </c>
+      <c r="O180" t="s" s="2">
+        <v>835</v>
+      </c>
       <c r="P180" t="s" s="2">
         <v>81</v>
       </c>
@@ -24100,13 +24072,13 @@
         <v>81</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>795</v>
+        <v>831</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH180" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI180" t="s" s="2">
         <v>81</v>
@@ -24115,7 +24087,7 @@
         <v>101</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>798</v>
+        <v>836</v>
       </c>
       <c r="AL180" t="s" s="2">
         <v>107</v>
@@ -24132,10 +24104,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>799</v>
+        <v>837</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>799</v>
+        <v>837</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24146,7 +24118,7 @@
         <v>79</v>
       </c>
       <c r="G181" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H181" t="s" s="2">
         <v>81</v>
@@ -24158,20 +24130,16 @@
         <v>81</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>724</v>
+        <v>103</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>800</v>
+        <v>104</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>801</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>802</v>
-      </c>
-      <c r="O181" t="s" s="2">
-        <v>803</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
         <v>81</v>
       </c>
@@ -24219,25 +24187,25 @@
         <v>81</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>799</v>
+        <v>106</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH181" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI181" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK181" t="s" s="2">
-        <v>804</v>
+        <v>107</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>805</v>
+        <v>81</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>81</v>
@@ -24251,21 +24219,21 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>806</v>
+        <v>838</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>806</v>
+        <v>838</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G182" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="H182" t="s" s="2">
         <v>81</v>
@@ -24277,15 +24245,17 @@
         <v>81</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N182" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N182" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O182" s="2"/>
       <c r="P182" t="s" s="2">
         <v>81</v>
@@ -24334,19 +24304,19 @@
         <v>81</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH182" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AI182" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="AK182" t="s" s="2">
         <v>107</v>
@@ -24366,14 +24336,14 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>807</v>
+        <v>839</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>807</v>
+        <v>839</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
-        <v>109</v>
+        <v>735</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
@@ -24386,24 +24356,26 @@
         <v>81</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K183" t="s" s="2">
         <v>110</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>111</v>
+        <v>736</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>112</v>
+        <v>737</v>
       </c>
       <c r="N183" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="O183" s="2"/>
+      <c r="O183" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P183" t="s" s="2">
         <v>81</v>
       </c>
@@ -24451,7 +24423,7 @@
         <v>81</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>117</v>
+        <v>738</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>79</v>
@@ -24466,7 +24438,7 @@
         <v>118</v>
       </c>
       <c r="AK183" t="s" s="2">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="AL183" t="s" s="2">
         <v>81</v>
@@ -24483,46 +24455,44 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>808</v>
+        <v>840</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
-        <v>744</v>
+        <v>81</v>
       </c>
       <c r="E184" s="2"/>
       <c r="F184" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G184" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H184" t="s" s="2">
         <v>81</v>
       </c>
       <c r="I184" t="s" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J184" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>110</v>
+        <v>841</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>745</v>
+        <v>842</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>746</v>
+        <v>843</v>
       </c>
       <c r="N184" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>844</v>
+      </c>
+      <c r="O184" s="2"/>
       <c r="P184" t="s" s="2">
         <v>81</v>
       </c>
@@ -24570,31 +24540,31 @@
         <v>81</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>747</v>
+        <v>840</v>
       </c>
       <c r="AG184" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH184" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI184" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AJ184" t="s" s="2">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>192</v>
+        <v>410</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN184" t="s" s="2">
-        <v>81</v>
+        <v>845</v>
       </c>
       <c r="AO184" t="s" s="2">
         <v>81</v>
@@ -24602,10 +24572,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>809</v>
+        <v>846</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>809</v>
+        <v>846</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -24625,23 +24595,19 @@
         <v>81</v>
       </c>
       <c r="J185" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>434</v>
+        <v>169</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>810</v>
+        <v>847</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>811</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>813</v>
-      </c>
+        <v>848</v>
+      </c>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
         <v>81</v>
       </c>
@@ -24665,13 +24631,13 @@
         <v>81</v>
       </c>
       <c r="X185" t="s" s="2">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="Y185" t="s" s="2">
-        <v>174</v>
+        <v>848</v>
       </c>
       <c r="Z185" t="s" s="2">
-        <v>175</v>
+        <v>849</v>
       </c>
       <c r="AA185" t="s" s="2">
         <v>81</v>
@@ -24689,7 +24655,7 @@
         <v>81</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>809</v>
+        <v>846</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>89</v>
@@ -24704,1075 +24670,18 @@
         <v>101</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>814</v>
+        <v>850</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>815</v>
+        <v>107</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN185" t="s" s="2">
-        <v>816</v>
+        <v>81</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="B186" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="C186" s="2"/>
-      <c r="D186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E186" s="2"/>
-      <c r="F186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G186" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K186" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="L186" t="s" s="2">
-        <v>818</v>
-      </c>
-      <c r="M186" t="s" s="2">
-        <v>819</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>820</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>821</v>
-      </c>
-      <c r="P186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q186" s="2"/>
-      <c r="R186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF186" t="s" s="2">
-        <v>817</v>
-      </c>
-      <c r="AG186" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH186" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ186" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK186" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="AL186" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="AM186" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN186" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="AO186" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="B187" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="C187" s="2"/>
-      <c r="D187" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="E187" s="2"/>
-      <c r="F187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G187" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K187" t="s" s="2">
-        <v>827</v>
-      </c>
-      <c r="L187" t="s" s="2">
-        <v>828</v>
-      </c>
-      <c r="M187" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>830</v>
-      </c>
-      <c r="O187" s="2"/>
-      <c r="P187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q187" s="2"/>
-      <c r="R187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF187" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="AG187" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH187" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ187" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK187" t="s" s="2">
-        <v>831</v>
-      </c>
-      <c r="AL187" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM187" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN187" t="s" s="2">
-        <v>832</v>
-      </c>
-      <c r="AO187" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="B188" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="C188" s="2"/>
-      <c r="D188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E188" s="2"/>
-      <c r="F188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G188" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J188" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K188" t="s" s="2">
-        <v>834</v>
-      </c>
-      <c r="L188" t="s" s="2">
-        <v>835</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>836</v>
-      </c>
-      <c r="N188" t="s" s="2">
-        <v>837</v>
-      </c>
-      <c r="O188" t="s" s="2">
-        <v>838</v>
-      </c>
-      <c r="P188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q188" s="2"/>
-      <c r="R188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF188" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="AG188" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH188" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ188" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK188" t="s" s="2">
-        <v>793</v>
-      </c>
-      <c r="AL188" t="s" s="2">
-        <v>839</v>
-      </c>
-      <c r="AM188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN188" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO188" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="B189" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="C189" s="2"/>
-      <c r="D189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E189" s="2"/>
-      <c r="F189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G189" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I189" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J189" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K189" t="s" s="2">
-        <v>724</v>
-      </c>
-      <c r="L189" t="s" s="2">
-        <v>841</v>
-      </c>
-      <c r="M189" t="s" s="2">
-        <v>842</v>
-      </c>
-      <c r="N189" t="s" s="2">
-        <v>843</v>
-      </c>
-      <c r="O189" t="s" s="2">
-        <v>844</v>
-      </c>
-      <c r="P189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q189" s="2"/>
-      <c r="R189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF189" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="AG189" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH189" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ189" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK189" t="s" s="2">
-        <v>845</v>
-      </c>
-      <c r="AL189" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN189" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO189" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s" s="2">
-        <v>846</v>
-      </c>
-      <c r="B190" t="s" s="2">
-        <v>846</v>
-      </c>
-      <c r="C190" s="2"/>
-      <c r="D190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E190" s="2"/>
-      <c r="F190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G190" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K190" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L190" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M190" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N190" s="2"/>
-      <c r="O190" s="2"/>
-      <c r="P190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q190" s="2"/>
-      <c r="R190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF190" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AG190" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH190" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK190" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AL190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN190" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO190" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s" s="2">
-        <v>847</v>
-      </c>
-      <c r="B191" t="s" s="2">
-        <v>847</v>
-      </c>
-      <c r="C191" s="2"/>
-      <c r="D191" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="E191" s="2"/>
-      <c r="F191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G191" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="K191" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L191" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O191" s="2"/>
-      <c r="P191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q191" s="2"/>
-      <c r="R191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF191" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG191" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH191" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ191" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK191" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AL191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN191" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO191" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s" s="2">
-        <v>848</v>
-      </c>
-      <c r="B192" t="s" s="2">
-        <v>848</v>
-      </c>
-      <c r="C192" s="2"/>
-      <c r="D192" t="s" s="2">
-        <v>744</v>
-      </c>
-      <c r="E192" s="2"/>
-      <c r="F192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G192" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I192" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="J192" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K192" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="L192" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="M192" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="P192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q192" s="2"/>
-      <c r="R192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF192" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="AG192" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH192" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ192" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK192" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AL192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AM192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN192" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO192" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s" s="2">
-        <v>849</v>
-      </c>
-      <c r="B193" t="s" s="2">
-        <v>849</v>
-      </c>
-      <c r="C193" s="2"/>
-      <c r="D193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E193" s="2"/>
-      <c r="F193" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G193" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J193" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K193" t="s" s="2">
-        <v>850</v>
-      </c>
-      <c r="L193" t="s" s="2">
-        <v>851</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>852</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>853</v>
-      </c>
-      <c r="O193" s="2"/>
-      <c r="P193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q193" s="2"/>
-      <c r="R193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF193" t="s" s="2">
-        <v>849</v>
-      </c>
-      <c r="AG193" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH193" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ193" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK193" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AL193" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM193" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN193" t="s" s="2">
-        <v>854</v>
-      </c>
-      <c r="AO193" t="s" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s" s="2">
-        <v>855</v>
-      </c>
-      <c r="B194" t="s" s="2">
-        <v>855</v>
-      </c>
-      <c r="C194" s="2"/>
-      <c r="D194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="E194" s="2"/>
-      <c r="F194" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G194" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="I194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="J194" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="K194" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="L194" t="s" s="2">
-        <v>856</v>
-      </c>
-      <c r="M194" t="s" s="2">
-        <v>857</v>
-      </c>
-      <c r="N194" s="2"/>
-      <c r="O194" s="2"/>
-      <c r="P194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q194" s="2"/>
-      <c r="R194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X194" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="Y194" t="s" s="2">
-        <v>857</v>
-      </c>
-      <c r="Z194" t="s" s="2">
-        <v>858</v>
-      </c>
-      <c r="AA194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF194" t="s" s="2">
-        <v>855</v>
-      </c>
-      <c r="AG194" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH194" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AJ194" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK194" t="s" s="2">
-        <v>859</v>
-      </c>
-      <c r="AL194" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AM194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AN194" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AO194" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/www/ig/fhir/core/2.0.0-ballot/StructureDefinition-fr-core-patient-ins.xlsx
+++ b/www/ig/fhir/core/2.0.0-ballot/StructureDefinition-fr-core-patient-ins.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-20T11:14:35+01:00</t>
+    <t>2024-02-20T11:29:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
